--- a/wenjian/5月份咨询组工作量明细统计.xlsx
+++ b/wenjian/5月份咨询组工作量明细统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>人员级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>当月投入项目时间（天数）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -79,25 +75,16 @@
   <si>
     <t xml:space="preserve">上海资产交易录入
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海、广州资产交易录入
-</t>
-  </si>
-  <si>
-    <t>制作上海3月底交易模板，交易录入类固收交易43笔，现券交易39笔，净值型资产交易35笔；
-制作广州3月底交易模板，交易录入类固收交易52笔，现券交易4笔，净值型资产交易10笔，货币基金11笔；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海3月底交易模板，交易录入类固收交易50笔，现券交易50笔，净值型资产交易37笔；
-净值型资产报价维护；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海3月底交易模板，交易录入类固收交易35笔，现券交易51笔，质押式回购交易35笔，货币基金36笔；
-净值型资产报价维护；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交易录入
+配合处理现金调整业务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海资产交易录入
+资管系统数据信息维护</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -106,126 +93,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制作上海3月底交易模板，交易录入类固收交易3笔，现券交易4笔，质押式回购交易3笔；
+    <t>上海资产交易录入
+资管系统基础数据维护</t>
+  </si>
+  <si>
+    <t>上海资产交易录入
+资管系统基础数据维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月底交易模板，交易录入净值型资产交易286笔；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月底交易模板，交易录入类固收交易55笔，现券交易37笔，净值型资产交易20笔；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海资产交易录入
+配合行方处理交易异常
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交易现金调整64笔，资产交易录入92笔；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海4月份调整交易录入，部分现金调整录入，并执行跑批；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上海资产交易录入
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海资产交易录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月底交易模板，交易录入类固收交易22笔，现券交易9笔，净值型资产交易76笔；
 净值型资产报价维护；
-货币基金万份收益维护；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海资产交易信息维护，费用划拨调整现金；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合处理现金调整业务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海分拆调账，质押式回购交易录入50笔，现金调整50笔；
-净值型资产交易、类固收资产交易执行跑批；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海交易录入
-配合处理现金调整业务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海资产交易录入
-资管系统数据信息维护
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资管系统数据信息维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资管系统货币基金万份收益信息维护；
-系统汇率维护及净值型资产报价维护；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资管系统货币基金万份收益信息维护；</t>
-  </si>
-  <si>
-    <t>资管系统货币基金万份收益信息维护；
-产品基础信息维护；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易30笔，现券交易40笔，货币基金交易6笔；
-货币基金万份收益维护；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易40笔，现券交易50笔，净值型资产交易26笔；
-货币基金万份收益维护；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上海资产交易录入
-资管系统数据信息维护
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海资产交易录入
-资管系统数据信息维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易60笔，现券交易53笔，货币基金交易4笔；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易50笔，净值型资产交易30笔；
 货币基金万份收益维护；
 汇率维护；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海产品申购赎回交易录入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海产品申购赎回录入系统42笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理广州类固收资产交易（MOM）
-资管系统数据信息维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易33笔，净值型资产交易30笔，回购交易1笔；
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月底交易模板，交易录入类固收交易43笔，现券交易15笔；
+净值型资产报价维护；
+货币基金万份收益维护；
+汇率维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月底交易模板，交易录入类固收交易69笔，现券交易41笔，回购交易29笔；
+上海T+0产品申购赎回录入系统24条；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月份交易模板，类固收原始交易录入14笔，现券原始交易录入4笔，回购原始交易录入81笔；
 货币基金万份收益维护；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>制作类固收资产交易模板474条；
+    <t>制作上海5月交易模板，交易录入类固收交易59笔，现券交易44笔，净值型资产交易7笔，回购交易10笔；
+上海T+0产品申购赎回录入系统7条；
 货币基金万份收益维护；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>制作类固收资产交易模板1000条；
+    <t>制作上海5月交易模板，交易录入类固收交易51笔，现券交易26笔，净值型资产交易15笔，货币基金交易1笔，回购交易6笔；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易15笔，现券交易23笔，净值型资产交易3笔；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易92笔，现券交易61笔，净值型资产交易82笔，货币基金交易1笔，回购交易20笔；
+货币基金万份收益信息维护；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易13笔，现券交易10笔，净值型资产交易26笔，货币基金交易1笔；
+货币基金万份收益信息维护；
+净值型资产报价维护；
+汇率维护；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易28笔，现券交易3笔，净值型资产交易39笔，货币基金交易1笔；
+货币基金万份收益信息维护；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易18笔，现券交易22笔，净值型资产交易5笔，回购交易1笔；
+货币基金万份收益维护；
+净值型资产报价维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易26笔，现券交易27笔，净值型资产交易18笔，回购交易14笔，货币基金交易2笔；
+上海T+0产品申购赎回录入系统7条；
+货币基金万份收益维护；
+净值型资产报价维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易14笔，现券交易8笔，净值型资产交易17笔，回购交易1笔；
 货币基金万份收益维护；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易50笔，现券交易77笔，货币基金交易3笔，净值型资产交易20笔；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易75笔，现券交易86笔，质押式回购交易3笔，净值型资产交易30笔；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理广州类固收资产交易（MOM）
-资管系统数据信息维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作上海4月份交易模板，交易录入类固收交易33笔，现券交易34笔，货币基金交易4笔，净值型资产交易35笔；
+    <t>制作上海5月交易模板，交易录入类固收交易31笔，现券交易23笔，净值型资产交易21笔；
+货币基金万份收益维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易51笔，现券交易56笔，净值型资产交易15笔，货币基金交易3笔；
+货币基金万份收益维护；
+净值型资产报价维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海5月交易模板，交易录入类固收交易19笔，现券交易71笔，净值型资产交易22笔；
+货币基金万份收益维护；
+净值型资产报价维护；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作上海4月份交易模板，交易录入类固收交易66笔，现券交易113笔，货币基金交易1笔，净值型资产交易46笔；
 货币基金万份收益维护；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -358,16 +356,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -735,7 +733,7 @@
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -760,16 +758,16 @@
       <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="9"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -782,18 +780,16 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="K2" s="10"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <v>42857</v>
@@ -802,10 +798,10 @@
         <v>42857</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -814,17 +810,17 @@
         <v>1.25</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="10">
-        <f>SUM(I3:I22)</f>
+      <c r="K3" s="8">
+        <f>SUM(I3:I24)</f>
+        <v>23</v>
+      </c>
+      <c r="L3" s="7">
         <v>21</v>
       </c>
-      <c r="L3" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4">
         <v>42858</v>
@@ -833,10 +829,10 @@
         <v>42858</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -845,12 +841,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
         <v>42859</v>
@@ -859,10 +855,10 @@
         <v>42859</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -871,12 +867,12 @@
         <v>1.25</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
         <v>42860</v>
@@ -885,10 +881,10 @@
         <v>42860</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -897,50 +893,50 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4">
-        <v>42863</v>
+        <v>42861</v>
       </c>
       <c r="E7" s="4">
-        <v>42863</v>
+        <v>42861</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4">
-        <v>42864</v>
+        <v>42863</v>
       </c>
       <c r="E8" s="4">
-        <v>42864</v>
+        <v>42863</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -949,76 +945,76 @@
         <v>1</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4">
-        <v>42865</v>
+        <v>42864</v>
       </c>
       <c r="E9" s="4">
-        <v>42865</v>
+        <v>42864</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4">
-        <v>42866</v>
+        <v>42865</v>
       </c>
       <c r="E10" s="4">
-        <v>42866</v>
+        <v>42865</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4">
-        <v>42867</v>
+        <v>42866</v>
       </c>
       <c r="E11" s="4">
-        <v>42867</v>
+        <v>42866</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1027,24 +1023,24 @@
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4">
-        <v>42870</v>
+        <v>42867</v>
       </c>
       <c r="E12" s="4">
-        <v>42870</v>
+        <v>42867</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1053,76 +1049,76 @@
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4">
-        <v>42871</v>
+        <v>42870</v>
       </c>
       <c r="E13" s="4">
-        <v>42871</v>
+        <v>42870</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4">
-        <v>42872</v>
+        <v>42871</v>
       </c>
       <c r="E14" s="4">
-        <v>42872</v>
+        <v>42871</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4">
-        <v>42873</v>
+        <v>42872</v>
       </c>
       <c r="E15" s="4">
-        <v>42873</v>
+        <v>42872</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1131,24 +1127,24 @@
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4">
-        <v>42874</v>
+        <v>42873</v>
       </c>
       <c r="E16" s="4">
-        <v>42874</v>
+        <v>42873</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1157,76 +1153,76 @@
         <v>1</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4">
-        <v>42877</v>
+        <v>42874</v>
       </c>
       <c r="E17" s="4">
-        <v>42877</v>
+        <v>42874</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4">
-        <v>42878</v>
+        <v>42877</v>
       </c>
       <c r="E18" s="4">
-        <v>42878</v>
+        <v>42877</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4">
-        <v>42879</v>
+        <v>42878</v>
       </c>
       <c r="E19" s="4">
-        <v>42879</v>
+        <v>42878</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1235,24 +1231,24 @@
         <v>1</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4">
-        <v>42880</v>
+        <v>42879</v>
       </c>
       <c r="E20" s="4">
-        <v>42880</v>
+        <v>42879</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1261,24 +1257,24 @@
         <v>1</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4">
-        <v>42881</v>
+        <v>42880</v>
       </c>
       <c r="E21" s="4">
-        <v>42881</v>
+        <v>42880</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1287,53 +1283,105 @@
         <v>1</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4">
+        <v>42881</v>
+      </c>
+      <c r="E22" s="4">
+        <v>42881</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4">
         <v>42882</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>42882</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="9"/>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4">
+        <v>42886</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42886</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="C3:C24"/>
+    <mergeCell ref="K3:K24"/>
+    <mergeCell ref="L3:L24"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="K3:K22"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/wenjian/5月份咨询组工作量明细统计.xlsx
+++ b/wenjian/5月份咨询组工作量明细统计.xlsx
@@ -356,16 +356,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +733,7 @@
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -758,16 +758,16 @@
       <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -780,16 +780,16 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>42857</v>
@@ -810,17 +810,17 @@
         <v>1.25</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="8">
+      <c r="K3" s="10">
         <f>SUM(I3:I24)</f>
         <v>23</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4">
         <v>42858</v>
@@ -841,12 +841,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
         <v>42859</v>
@@ -867,12 +867,12 @@
         <v>1.25</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
         <v>42860</v>
@@ -893,12 +893,12 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4">
         <v>42861</v>
@@ -919,12 +919,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4">
         <v>42863</v>
@@ -945,12 +945,12 @@
         <v>1</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4">
         <v>42864</v>
@@ -971,12 +971,12 @@
         <v>1</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4">
         <v>42865</v>
@@ -997,12 +997,12 @@
         <v>1.25</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="6"/>
       <c r="D11" s="4">
         <v>42866</v>
@@ -1023,12 +1023,12 @@
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6"/>
       <c r="D12" s="4">
         <v>42867</v>
@@ -1049,12 +1049,12 @@
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4">
         <v>42870</v>
@@ -1075,12 +1075,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4">
         <v>42871</v>
@@ -1101,12 +1101,12 @@
         <v>1.25</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4">
         <v>42872</v>
@@ -1127,12 +1127,12 @@
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4">
         <v>42873</v>
@@ -1153,12 +1153,12 @@
         <v>1</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4">
         <v>42874</v>
@@ -1179,12 +1179,12 @@
         <v>1</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4">
         <v>42877</v>
@@ -1205,12 +1205,12 @@
         <v>1.5</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4">
         <v>42878</v>
@@ -1231,12 +1231,12 @@
         <v>1</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4">
         <v>42879</v>
@@ -1257,12 +1257,12 @@
         <v>1</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4">
         <v>42880</v>
@@ -1283,12 +1283,12 @@
         <v>1</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4">
         <v>42881</v>
@@ -1309,12 +1309,12 @@
         <v>1</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4">
         <v>42882</v>
@@ -1335,12 +1335,12 @@
         <v>1</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4">
         <v>42886</v>
@@ -1361,27 +1361,27 @@
         <v>1</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="B3:B24"/>
-    <mergeCell ref="C3:C24"/>
-    <mergeCell ref="K3:K24"/>
-    <mergeCell ref="L3:L24"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="B3:B24"/>
+    <mergeCell ref="C3:C24"/>
+    <mergeCell ref="K3:K24"/>
+    <mergeCell ref="L3:L24"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
